--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ver1" sheetId="1" r:id="rId1"/>
+    <sheet name="Screen" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="89">
   <si>
     <t>Item #</t>
   </si>
@@ -219,13 +220,85 @@
   </si>
   <si>
     <t>Remove discussion</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>System Admin</t>
+  </si>
+  <si>
+    <t>Manage brand</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Update brand</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Admin will have update role , ban user; manager doesn't</t>
+  </si>
+  <si>
+    <t>Admin and manager</t>
+  </si>
+  <si>
+    <t>Manage plans</t>
+  </si>
+  <si>
+    <t>Manage users</t>
+  </si>
+  <si>
+    <t>Manage skills</t>
+  </si>
+  <si>
+    <t>Learner report activity pages</t>
+  </si>
+  <si>
+    <t>Manage course</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>View course detail</t>
+  </si>
+  <si>
+    <t>Learning page</t>
+  </si>
+  <si>
+    <t>Take quiz page</t>
+  </si>
+  <si>
+    <t>View result page</t>
+  </si>
+  <si>
+    <t>Update profile page</t>
+  </si>
+  <si>
+    <t>View learning courses (include process)</t>
+  </si>
+  <si>
+    <t>Thinh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -249,6 +322,17 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -270,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -300,6 +384,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4097,4 +4191,935 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="73.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="16"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
+    <col min="6" max="6" width="14" style="16" customWidth="1"/>
+    <col min="7" max="7" width="53.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="14">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="14">
+        <v>5</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="14">
+        <v>6</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="14">
+        <v>7</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="14">
+        <v>8</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13"/>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="14">
+        <v>9</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="14">
+        <v>10</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="14">
+        <v>11</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="14">
+        <v>12</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="14">
+        <v>13</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="14">
+        <v>14</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="14">
+        <v>15</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="14">
+        <v>16</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="14">
+        <v>17</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>15</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="14">
+        <v>18</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>16</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="14">
+        <v>19</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>17</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="14">
+        <v>20</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>18</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="14">
+        <v>21</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>19</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="14">
+        <v>22</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>20</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="14">
+        <v>23</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>21</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="14">
+        <v>24</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>22</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="14">
+        <v>25</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>23</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="14">
+        <v>26</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>24</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>25</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>26</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>27</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>28</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>29</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>30</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>31</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>32</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>33</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <v>34</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>35</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <v>36</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
+        <v>37</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
+        <v>38</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
+        <v>39</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="11">
+        <v>40</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
+        <v>41</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="11">
+        <v>42</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="11">
+        <v>43</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="11">
+        <v>44</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="11">
+        <v>45</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="11">
+        <v>46</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="11">
+        <v>47</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="11">
+        <v>48</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="11">
+        <v>49</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="11">
+        <v>50</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="11">
+        <v>51</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="13"/>
+    </row>
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="11">
+        <v>52</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="11">
+        <v>53</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="11">
+        <v>54</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>